--- a/teaching/traditional_assets/database/data/india/india_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_insurance_general.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.395</v>
+        <v>0.37</v>
       </c>
       <c r="E2">
-        <v>0.181</v>
+        <v>0.124</v>
       </c>
       <c r="F2">
-        <v>0.236</v>
+        <v>0.146</v>
       </c>
       <c r="G2">
-        <v>0.3345941553893139</v>
+        <v>0.3767483870967742</v>
       </c>
       <c r="H2">
-        <v>0.3345941553893139</v>
+        <v>0.3767483870967742</v>
       </c>
       <c r="I2">
-        <v>0.3857555125942114</v>
+        <v>0.3855612903225806</v>
       </c>
       <c r="J2">
-        <v>0.2644101432714301</v>
+        <v>0.2868127681012968</v>
       </c>
       <c r="K2">
-        <v>529.1</v>
+        <v>478.9</v>
       </c>
       <c r="L2">
-        <v>0.07412232775769803</v>
+        <v>0.06179354838709677</v>
       </c>
       <c r="M2">
-        <v>35.6</v>
+        <v>42.2</v>
       </c>
       <c r="N2">
-        <v>0.001694923323763682</v>
+        <v>0.002174249059714565</v>
       </c>
       <c r="O2">
-        <v>0.06728406728406729</v>
+        <v>0.08811860513677178</v>
       </c>
       <c r="P2">
-        <v>35.6</v>
+        <v>42.2</v>
       </c>
       <c r="Q2">
-        <v>0.001694923323763682</v>
+        <v>0.002174249059714565</v>
       </c>
       <c r="R2">
-        <v>0.06728406728406729</v>
+        <v>0.08811860513677178</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>267</v>
+        <v>417.2</v>
       </c>
       <c r="V2">
-        <v>0.01271192492822761</v>
+        <v>0.02149518264722551</v>
       </c>
       <c r="W2">
-        <v>0.1783703603816202</v>
+        <v>0.1298641429617377</v>
       </c>
       <c r="X2">
-        <v>0.07506762697999239</v>
+        <v>0.07701817426949743</v>
       </c>
       <c r="Y2">
-        <v>0.1033027334016278</v>
+        <v>0.05284596869224024</v>
       </c>
       <c r="Z2">
-        <v>0.5818362622672882</v>
+        <v>0.4416583558911526</v>
       </c>
       <c r="AA2">
-        <v>0.153843409466607</v>
+        <v>0.1266732556082091</v>
       </c>
       <c r="AB2">
-        <v>0.05999589196468813</v>
+        <v>0.05822969170412053</v>
       </c>
       <c r="AC2">
-        <v>0.09384751750191891</v>
+        <v>0.06844356390408861</v>
       </c>
       <c r="AD2">
-        <v>14224.4</v>
+        <v>13733.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>14224.4</v>
+        <v>13733.7</v>
       </c>
       <c r="AG2">
-        <v>13957.4</v>
+        <v>13316.5</v>
       </c>
       <c r="AH2">
-        <v>0.4037776446777164</v>
+        <v>0.4143808440471055</v>
       </c>
       <c r="AI2">
-        <v>0.7140691358520497</v>
+        <v>0.6486452021215799</v>
       </c>
       <c r="AJ2">
-        <v>0.3992242851381384</v>
+        <v>0.406915096789965</v>
       </c>
       <c r="AK2">
-        <v>0.7101846009810107</v>
+        <v>0.6415827941240237</v>
       </c>
       <c r="AL2">
-        <v>1136.9</v>
+        <v>1320.2</v>
       </c>
       <c r="AM2">
-        <v>1136.9</v>
+        <v>1320.2</v>
       </c>
       <c r="AN2">
-        <v>5.090141349078547</v>
+        <v>4.543971678136581</v>
       </c>
       <c r="AO2">
-        <v>2.422024804292374</v>
+        <v>2.263369186486896</v>
       </c>
       <c r="AP2">
-        <v>4.994596528896046</v>
+        <v>4.405935680254102</v>
       </c>
       <c r="AQ2">
-        <v>2.422024804292374</v>
+        <v>2.263369186486896</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.395</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
-        <v>0.181</v>
+        <v>0.124</v>
       </c>
       <c r="F3">
-        <v>0.236</v>
+        <v>0.146</v>
       </c>
       <c r="G3">
-        <v>0.3345941553893139</v>
+        <v>0.3767483870967742</v>
       </c>
       <c r="H3">
-        <v>0.3345941553893139</v>
+        <v>0.3767483870967742</v>
       </c>
       <c r="I3">
-        <v>0.3857555125942114</v>
+        <v>0.3855612903225806</v>
       </c>
       <c r="J3">
-        <v>0.2644101432714301</v>
+        <v>0.2868127681012968</v>
       </c>
       <c r="K3">
-        <v>529.1</v>
+        <v>478.9</v>
       </c>
       <c r="L3">
-        <v>0.07412232775769803</v>
+        <v>0.06179354838709677</v>
       </c>
       <c r="M3">
-        <v>35.6</v>
+        <v>42.2</v>
       </c>
       <c r="N3">
-        <v>0.001694923323763682</v>
+        <v>0.002174249059714565</v>
       </c>
       <c r="O3">
-        <v>0.06728406728406729</v>
+        <v>0.08811860513677178</v>
       </c>
       <c r="P3">
-        <v>35.6</v>
+        <v>42.2</v>
       </c>
       <c r="Q3">
-        <v>0.001694923323763682</v>
+        <v>0.002174249059714565</v>
       </c>
       <c r="R3">
-        <v>0.06728406728406729</v>
+        <v>0.08811860513677178</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>267</v>
+        <v>417.2</v>
       </c>
       <c r="V3">
-        <v>0.01271192492822761</v>
+        <v>0.02149518264722551</v>
       </c>
       <c r="W3">
-        <v>0.1783703603816202</v>
+        <v>0.1298641429617377</v>
       </c>
       <c r="X3">
-        <v>0.07506762697999239</v>
+        <v>0.07701817426949743</v>
       </c>
       <c r="Y3">
-        <v>0.1033027334016278</v>
+        <v>0.05284596869224024</v>
       </c>
       <c r="Z3">
-        <v>0.5818362622672882</v>
+        <v>0.4416583558911526</v>
       </c>
       <c r="AA3">
-        <v>0.153843409466607</v>
+        <v>0.1266732556082091</v>
       </c>
       <c r="AB3">
-        <v>0.05999589196468813</v>
+        <v>0.05822969170412053</v>
       </c>
       <c r="AC3">
-        <v>0.09384751750191891</v>
+        <v>0.06844356390408861</v>
       </c>
       <c r="AD3">
-        <v>14224.4</v>
+        <v>13733.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>14224.4</v>
+        <v>13733.7</v>
       </c>
       <c r="AG3">
-        <v>13957.4</v>
+        <v>13316.5</v>
       </c>
       <c r="AH3">
-        <v>0.4037776446777164</v>
+        <v>0.4143808440471055</v>
       </c>
       <c r="AI3">
-        <v>0.7140691358520497</v>
+        <v>0.6486452021215799</v>
       </c>
       <c r="AJ3">
-        <v>0.3992242851381384</v>
+        <v>0.406915096789965</v>
       </c>
       <c r="AK3">
-        <v>0.7101846009810107</v>
+        <v>0.6415827941240237</v>
       </c>
       <c r="AL3">
-        <v>1136.9</v>
+        <v>1320.2</v>
       </c>
       <c r="AM3">
-        <v>1136.9</v>
+        <v>1320.2</v>
       </c>
       <c r="AN3">
-        <v>5.090141349078547</v>
+        <v>4.543971678136581</v>
       </c>
       <c r="AO3">
-        <v>2.422024804292374</v>
+        <v>2.263369186486896</v>
       </c>
       <c r="AP3">
-        <v>4.994596528896046</v>
+        <v>4.405935680254102</v>
       </c>
       <c r="AQ3">
-        <v>2.422024804292374</v>
+        <v>2.263369186486896</v>
       </c>
     </row>
   </sheetData>
